--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:02:11+00:00</t>
+    <t>2022-04-26T11:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:12:16+00:00</t>
+    <t>2022-04-26T13:26:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:26:02+00:00</t>
+    <t>2022-04-26T13:59:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:59:43+00:00</t>
+    <t>2022-04-26T14:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T14:22:56+00:00</t>
+    <t>2022-04-26T15:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:39:01+00:00</t>
+    <t>2022-04-26T15:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:51:51+00:00</t>
+    <t>2022-04-26T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:55:35+00:00</t>
+    <t>2022-04-26T18:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T18:38:49+00:00</t>
+    <t>2022-04-26T21:01:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T21:01:36+00:00</t>
+    <t>2022-04-27T14:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +72,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Extension : Version</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -278,6 +278,9 @@
   <si>
     <t xml:space="preserve">Extension
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -571,74 +574,76 @@
       <c r="A11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -697,203 +702,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>75</v>
@@ -902,7 +907,7 @@
         <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -911,23 +916,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>79</v>
@@ -941,65 +946,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>83</v>
@@ -1011,98 +1016,98 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1110,10 +1115,10 @@
         <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1123,113 +1128,113 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>79</v>
@@ -1243,65 +1248,65 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>83</v>
@@ -1309,111 +1314,111 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1423,75 +1428,75 @@
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -1500,113 +1505,113 @@
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1617,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1627,13 +1632,13 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>86</v>
@@ -1642,98 +1647,98 @@
         <v>8</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
@@ -1747,65 +1752,65 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>83</v>
@@ -1813,111 +1818,111 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -1927,75 +1932,75 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>8</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -2004,122 +2009,122 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2129,75 +2134,75 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -2206,113 +2211,113 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T14:46:05+00:00</t>
+    <t>2022-04-27T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T15:02:03+00:00</t>
+    <t>2022-04-27T16:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -39,7 +39,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>version</t>
+    <t>Extension : Version</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T16:39:04+00:00</t>
+    <t>2022-04-27T17:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Extension : Version</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -341,6 +338,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t xml:space="preserve">id
@@ -575,75 +575,75 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -702,1622 +702,1622 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>70</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
+      <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J4" t="s" s="2">
+      <c r="K4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF5" t="s" s="2">
+      <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF7" t="s" s="2">
+      <c r="AG7" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF10" t="s" s="2">
+      <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>107</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI16" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T17:38:08+00:00</t>
+    <t>2022-04-27T18:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:33:33+00:00</t>
+    <t>2022-04-27T18:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:54:13+00:00</t>
+    <t>2022-04-27T19:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T19:43:22+00:00</t>
+    <t>2022-04-27T20:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T20:06:03+00:00</t>
+    <t>2022-04-28T14:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:41:30+00:00</t>
+    <t>2022-04-28T16:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T16:16:13+00:00</t>
+    <t>2022-04-28T17:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T17:50:19+00:00</t>
+    <t>2022-04-28T19:25:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:25:11+00:00</t>
+    <t>2022-04-28T19:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:27:01+00:00</t>
+    <t>2022-04-28T19:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:36:30+00:00</t>
+    <t>2022-04-28T20:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T20:42:10+00:00</t>
+    <t>2022-05-02T17:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T17:39:54+00:00</t>
+    <t>2022-05-02T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T18:57:01+00:00</t>
+    <t>2022-05-02T20:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T20:54:37+00:00</t>
+    <t>2022-05-03T12:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:17:31+00:00</t>
+    <t>2022-05-03T15:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:10:48+00:00</t>
+    <t>2022-05-03T15:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:15:42+00:00</t>
+    <t>2022-05-03T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:40:40+00:00</t>
+    <t>2022-05-03T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:58:51+00:00</t>
+    <t>2022-05-03T18:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:15:14+00:00</t>
+    <t>2022-05-09T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:42:31+00:00</t>
+    <t>2022-05-09T17:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:25:07+00:00</t>
+    <t>2022-05-09T17:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : SubStatus</t>
+    <t>Extension : Item Version</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:41:36+00:00</t>
+    <t>2022-05-09T17:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Item Version</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -550,75 +553,75 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -677,614 +680,614 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:47:29+00:00</t>
+    <t>2022-05-09T17:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:48:55+00:00</t>
+    <t>2022-05-09T17:49:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:49:02+00:00</t>
+    <t>2022-05-09T17:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:56:47+00:00</t>
+    <t>2022-05-09T17:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:59:55+00:00</t>
+    <t>2022-05-09T19:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T19:51:46+00:00</t>
+    <t>2022-05-10T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:02:28+00:00</t>
+    <t>2022-05-10T12:53:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:53:35+00:00</t>
+    <t>2022-05-10T16:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T16:32:58+00:00</t>
+    <t>2022-05-10T17:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T17:44:22+00:00</t>
+    <t>2022-05-10T18:22:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T18:22:34+00:00</t>
+    <t>2022-05-19T18:33:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T18:33:46+00:00</t>
+    <t>2022-05-20T20:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T20:32:52+00:00</t>
+    <t>2022-05-20T20:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T20:57:10+00:00</t>
+    <t>2022-05-23T01:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T01:13:32+00:00</t>
+    <t>2022-05-23T10:52:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:52:07+00:00</t>
+    <t>2022-05-23T10:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:54:56+00:00</t>
+    <t>2022-05-23T11:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:06:18+00:00</t>
+    <t>2022-05-23T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:08:31+00:00</t>
+    <t>2022-05-23T11:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:30:07+00:00</t>
+    <t>2022-05-23T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:46:37+00:00</t>
+    <t>2022-05-23T12:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T12:36:41+00:00</t>
+    <t>2022-05-24T14:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T14:28:11+00:00</t>
+    <t>2022-05-24T16:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T16:07:29+00:00</t>
+    <t>2022-05-24T18:19:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:19:26+00:00</t>
+    <t>2022-05-24T18:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:58:53+00:00</t>
+    <t>2022-05-25T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T15:25:26+00:00</t>
+    <t>2022-05-25T17:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:10:47+00:00</t>
+    <t>2022-05-25T17:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:52:37+00:00</t>
+    <t>2022-05-25T18:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T18:55:20+00:00</t>
+    <t>2022-05-25T19:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T19:52:35+00:00</t>
+    <t>2022-05-25T20:34:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T20:34:56+00:00</t>
+    <t>2022-06-09T20:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-09T20:33:24+00:00</t>
+    <t>2022-06-10T16:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T16:46:34+00:00</t>
+    <t>2022-06-10T18:20:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T18:20:06+00:00</t>
+    <t>2022-06-10T20:09:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:09:36+00:00</t>
+    <t>2022-06-10T20:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:31:51+00:00</t>
+    <t>2022-06-28T15:12:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -39,7 +39,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : Item Version</t>
+    <t>Questionnaire.item - Extension : Item Version</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T15:12:49+00:00</t>
+    <t>2022-07-04T18:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:23:06+00:00</t>
+    <t>2022-07-04T18:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -39,7 +39,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire.item - Extension : Item Version</t>
+    <t>Extension : Questionnaire.item -  Item Version</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:28:37+00:00</t>
+    <t>2022-07-04T20:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T20:25:49+00:00</t>
+    <t>2022-07-27T15:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -640,42 +640,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.4765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T15:29:27+00:00</t>
+    <t>2022-07-27T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:10:03+00:00</t>
+    <t>2022-07-27T16:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-version.xlsx
+++ b/StructureDefinition-version.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:26:41+00:00</t>
+    <t>2022-08-01T20:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
